--- a/ResultadoEleicoesDistritos/COIMBRA_CANTANHEDE.xlsx
+++ b/ResultadoEleicoesDistritos/COIMBRA_CANTANHEDE.xlsx
@@ -597,64 +597,64 @@
         <v>10213</v>
       </c>
       <c r="H2" t="n">
-        <v>398</v>
+        <v>348</v>
       </c>
       <c r="I2" t="n">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="J2" t="n">
-        <v>4227</v>
+        <v>4281</v>
       </c>
       <c r="K2" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L2" t="n">
-        <v>1137</v>
+        <v>1200</v>
       </c>
       <c r="M2" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N2" t="n">
-        <v>701</v>
+        <v>733</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="R2" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="S2" t="n">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="T2" t="n">
-        <v>778</v>
+        <v>737</v>
       </c>
       <c r="U2" t="n">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="V2" t="n">
-        <v>6451</v>
+        <v>6380</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>6548</v>
+        <v>6522</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AA2" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
